--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxToDoDetailReserve.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxToDoDetailReserve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61831E93-B5F8-4B92-9F1F-F802BBA9336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F079F8-AD30-49CE-BBAF-0F564C4B7D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21840" windowHeight="11664" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>ItemCode,CustNo,BormNo,DtlValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode = ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindL2880First</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1113,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1609,11 +1621,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1668,6 +1680,17 @@
         <v>79</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
